--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H2">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N2">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O2">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P2">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q2">
-        <v>32.56038829723833</v>
+        <v>116.4023810903213</v>
       </c>
       <c r="R2">
-        <v>32.56038829723833</v>
+        <v>1047.621429812892</v>
       </c>
       <c r="S2">
-        <v>0.01462196342024729</v>
+        <v>0.03027901124431091</v>
       </c>
       <c r="T2">
-        <v>0.01462196342024729</v>
+        <v>0.03027901124431091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H3">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N3">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P3">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q3">
-        <v>24.95241951186782</v>
+        <v>40.75025771747332</v>
       </c>
       <c r="R3">
-        <v>24.95241951186782</v>
+        <v>366.7523194572599</v>
       </c>
       <c r="S3">
-        <v>0.01120543655740561</v>
+        <v>0.01060010542807133</v>
       </c>
       <c r="T3">
-        <v>0.01120543655740561</v>
+        <v>0.01060010542807133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H4">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N4">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O4">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P4">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q4">
-        <v>13.87812589146895</v>
+        <v>23.413394319051</v>
       </c>
       <c r="R4">
-        <v>13.87812589146895</v>
+        <v>210.720548871459</v>
       </c>
       <c r="S4">
-        <v>0.006232279765037613</v>
+        <v>0.006090377389307349</v>
       </c>
       <c r="T4">
-        <v>0.006232279765037613</v>
+        <v>0.006090377389307349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N5">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O5">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P5">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q5">
-        <v>681.5696958793504</v>
+        <v>1503.36295824576</v>
       </c>
       <c r="R5">
-        <v>681.5696958793504</v>
+        <v>13530.26662421184</v>
       </c>
       <c r="S5">
-        <v>0.3060739654122064</v>
+        <v>0.3910602471411886</v>
       </c>
       <c r="T5">
-        <v>0.3060739654122064</v>
+        <v>0.3910602471411887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N6">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P6">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q6">
-        <v>522.3160369865793</v>
+        <v>526.2987528054243</v>
       </c>
       <c r="R6">
-        <v>522.3160369865793</v>
+        <v>4736.688775248818</v>
       </c>
       <c r="S6">
-        <v>0.2345575831868708</v>
+        <v>0.1369027480777821</v>
       </c>
       <c r="T6">
-        <v>0.2345575831868708</v>
+        <v>0.1369027480777821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N7">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O7">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P7">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q7">
-        <v>290.5036007824916</v>
+        <v>302.3892588481569</v>
       </c>
       <c r="R7">
-        <v>290.5036007824916</v>
+        <v>2721.503329633412</v>
       </c>
       <c r="S7">
-        <v>0.1304570751833446</v>
+        <v>0.07865859515122492</v>
       </c>
       <c r="T7">
-        <v>0.1304570751833446</v>
+        <v>0.07865859515122492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H8">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N8">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O8">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P8">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q8">
-        <v>301.4879306809046</v>
+        <v>858.4896092362582</v>
       </c>
       <c r="R8">
-        <v>301.4879306809046</v>
+        <v>7726.406483126324</v>
       </c>
       <c r="S8">
-        <v>0.1353898317740928</v>
+        <v>0.2233134433136618</v>
       </c>
       <c r="T8">
-        <v>0.1353898317740928</v>
+        <v>0.2233134433136619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H9">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N9">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P9">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q9">
-        <v>231.0431084371595</v>
+        <v>300.5408694948022</v>
       </c>
       <c r="R9">
-        <v>231.0431084371595</v>
+        <v>2704.86782545322</v>
       </c>
       <c r="S9">
-        <v>0.103755024332892</v>
+        <v>0.07817778538178674</v>
       </c>
       <c r="T9">
-        <v>0.103755024332892</v>
+        <v>0.07817778538178674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H10">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N10">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O10">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P10">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q10">
-        <v>128.5023820524567</v>
+        <v>172.678218019097</v>
       </c>
       <c r="R10">
-        <v>128.5023820524567</v>
+        <v>1554.103962171873</v>
       </c>
       <c r="S10">
-        <v>0.05770684036790283</v>
+        <v>0.04491768687266614</v>
       </c>
       <c r="T10">
-        <v>0.05770684036790283</v>
+        <v>0.04491768687266614</v>
       </c>
     </row>
   </sheetData>
